--- a/output/SCWA_Processed_2024-11-14.xlsx
+++ b/output/SCWA_Processed_2024-11-14.xlsx
@@ -1237,8 +1237,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B2" s="21" t="n">
-        <v>45613</v>
+      <c r="B2" s="21" t="inlineStr">
+        <is>
+          <t>11/17/2024</t>
+        </is>
       </c>
       <c r="C2" s="22">
         <f>B2</f>
@@ -1334,7 +1336,7 @@
       </c>
       <c r="Z2" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA2" s="6" t="inlineStr">
@@ -1357,8 +1359,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B3" s="21" t="n">
-        <v>45621</v>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>11/25/2024</t>
+        </is>
       </c>
       <c r="C3" s="22">
         <f>B3</f>
@@ -1454,7 +1458,7 @@
       </c>
       <c r="Z3" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA3" s="6" t="inlineStr">
@@ -1477,8 +1481,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B4" s="21" t="n">
-        <v>45615</v>
+      <c r="B4" s="21" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
       </c>
       <c r="C4" s="22">
         <f>B4</f>
@@ -1574,7 +1580,7 @@
       </c>
       <c r="Z4" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA4" s="6" t="inlineStr">
@@ -1597,8 +1603,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B5" s="21" t="n">
-        <v>45621</v>
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t>11/25/2024</t>
+        </is>
       </c>
       <c r="C5" s="22">
         <f>B5</f>
@@ -1694,7 +1702,7 @@
       </c>
       <c r="Z5" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA5" s="6" t="inlineStr">
@@ -1717,8 +1725,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B6" s="21" t="n">
-        <v>45614</v>
+      <c r="B6" s="21" t="inlineStr">
+        <is>
+          <t>11/18/2024</t>
+        </is>
       </c>
       <c r="C6" s="22">
         <f>B6</f>
@@ -1814,7 +1824,7 @@
       </c>
       <c r="Z6" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA6" s="6" t="inlineStr">
@@ -1837,8 +1847,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B7" s="21" t="n">
-        <v>45616</v>
+      <c r="B7" s="21" t="inlineStr">
+        <is>
+          <t>11/20/2024</t>
+        </is>
       </c>
       <c r="C7" s="22">
         <f>B7</f>
@@ -1934,7 +1946,7 @@
       </c>
       <c r="Z7" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA7" s="6" t="inlineStr">
@@ -1957,8 +1969,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B8" s="21" t="n">
-        <v>45615</v>
+      <c r="B8" s="21" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
       </c>
       <c r="C8" s="22">
         <f>B8</f>
@@ -2054,7 +2068,7 @@
       </c>
       <c r="Z8" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA8" s="6" t="inlineStr">
@@ -2077,8 +2091,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B9" s="21" t="n">
-        <v>45623</v>
+      <c r="B9" s="21" t="inlineStr">
+        <is>
+          <t>11/27/2024</t>
+        </is>
       </c>
       <c r="C9" s="22">
         <f>B9</f>
@@ -2174,7 +2190,7 @@
       </c>
       <c r="Z9" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA9" s="6" t="inlineStr">
@@ -2197,8 +2213,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B10" s="21" t="n">
-        <v>45620</v>
+      <c r="B10" s="21" t="inlineStr">
+        <is>
+          <t>11/24/2024</t>
+        </is>
       </c>
       <c r="C10" s="22">
         <f>B10</f>
@@ -2294,7 +2312,7 @@
       </c>
       <c r="Z10" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA10" s="6" t="inlineStr">
@@ -2317,8 +2335,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B11" s="21" t="n">
-        <v>45616</v>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
+          <t>11/20/2024</t>
+        </is>
       </c>
       <c r="C11" s="22">
         <f>B11</f>
@@ -2414,7 +2434,7 @@
       </c>
       <c r="Z11" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA11" s="6" t="inlineStr">
@@ -2437,8 +2457,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B12" s="21" t="n">
-        <v>45625</v>
+      <c r="B12" s="21" t="inlineStr">
+        <is>
+          <t>11/29/2024</t>
+        </is>
       </c>
       <c r="C12" s="22">
         <f>B12</f>
@@ -2534,7 +2556,7 @@
       </c>
       <c r="Z12" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA12" s="6" t="inlineStr">
@@ -2557,8 +2579,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B13" s="21" t="n">
-        <v>45614</v>
+      <c r="B13" s="21" t="inlineStr">
+        <is>
+          <t>11/18/2024</t>
+        </is>
       </c>
       <c r="C13" s="22">
         <f>B13</f>
@@ -2654,7 +2678,7 @@
       </c>
       <c r="Z13" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA13" s="6" t="inlineStr">
@@ -2677,8 +2701,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B14" s="21" t="n">
-        <v>45625</v>
+      <c r="B14" s="21" t="inlineStr">
+        <is>
+          <t>11/29/2024</t>
+        </is>
       </c>
       <c r="C14" s="22">
         <f>B14</f>
@@ -2774,7 +2800,7 @@
       </c>
       <c r="Z14" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA14" s="6" t="inlineStr">
@@ -2797,8 +2823,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B15" s="21" t="n">
-        <v>45620</v>
+      <c r="B15" s="21" t="inlineStr">
+        <is>
+          <t>11/24/2024</t>
+        </is>
       </c>
       <c r="C15" s="22">
         <f>B15</f>
@@ -2894,7 +2922,7 @@
       </c>
       <c r="Z15" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA15" s="6" t="inlineStr">
@@ -2917,8 +2945,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B16" s="21" t="n">
-        <v>45613</v>
+      <c r="B16" s="21" t="inlineStr">
+        <is>
+          <t>11/17/2024</t>
+        </is>
       </c>
       <c r="C16" s="22">
         <f>B16</f>
@@ -3014,7 +3044,7 @@
       </c>
       <c r="Z16" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA16" s="6" t="inlineStr">
@@ -3037,8 +3067,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B17" s="21" t="n">
-        <v>45610</v>
+      <c r="B17" s="21" t="inlineStr">
+        <is>
+          <t>11/14/2024</t>
+        </is>
       </c>
       <c r="C17" s="22">
         <f>B17</f>
@@ -3134,7 +3166,7 @@
       </c>
       <c r="Z17" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA17" s="6" t="inlineStr">
@@ -3157,8 +3189,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B18" s="21" t="n">
-        <v>45625</v>
+      <c r="B18" s="21" t="inlineStr">
+        <is>
+          <t>11/29/2024</t>
+        </is>
       </c>
       <c r="C18" s="22">
         <f>B18</f>
@@ -3254,7 +3288,7 @@
       </c>
       <c r="Z18" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA18" s="6" t="inlineStr">
@@ -3277,8 +3311,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B19" s="21" t="n">
-        <v>45611</v>
+      <c r="B19" s="21" t="inlineStr">
+        <is>
+          <t>11/15/2024</t>
+        </is>
       </c>
       <c r="C19" s="22">
         <f>B19</f>
@@ -3374,7 +3410,7 @@
       </c>
       <c r="Z19" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA19" s="6" t="inlineStr">
@@ -3397,8 +3433,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B20" s="21" t="n">
-        <v>45613</v>
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>11/17/2024</t>
+        </is>
       </c>
       <c r="C20" s="22">
         <f>B20</f>
@@ -3494,7 +3532,7 @@
       </c>
       <c r="Z20" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA20" s="6" t="inlineStr">
@@ -3517,8 +3555,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B21" s="21" t="n">
-        <v>45612</v>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>11/16/2024</t>
+        </is>
       </c>
       <c r="C21" s="22">
         <f>B21</f>
@@ -3614,7 +3654,7 @@
       </c>
       <c r="Z21" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA21" s="6" t="inlineStr">
@@ -3637,8 +3677,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B22" s="21" t="n">
-        <v>45620</v>
+      <c r="B22" s="21" t="inlineStr">
+        <is>
+          <t>11/24/2024</t>
+        </is>
       </c>
       <c r="C22" s="22">
         <f>B22</f>
@@ -3734,7 +3776,7 @@
       </c>
       <c r="Z22" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA22" s="6" t="inlineStr">
@@ -3757,8 +3799,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B23" s="21" t="n">
-        <v>45615</v>
+      <c r="B23" s="21" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
       </c>
       <c r="C23" s="22">
         <f>B23</f>
@@ -3854,7 +3898,7 @@
       </c>
       <c r="Z23" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA23" s="6" t="inlineStr">
@@ -3877,8 +3921,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B24" s="21" t="n">
-        <v>45613</v>
+      <c r="B24" s="21" t="inlineStr">
+        <is>
+          <t>11/17/2024</t>
+        </is>
       </c>
       <c r="C24" s="22">
         <f>B24</f>
@@ -3974,7 +4020,7 @@
       </c>
       <c r="Z24" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA24" s="6" t="inlineStr">
@@ -3997,8 +4043,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B25" s="21" t="n">
-        <v>45618</v>
+      <c r="B25" s="21" t="inlineStr">
+        <is>
+          <t>11/22/2024</t>
+        </is>
       </c>
       <c r="C25" s="22">
         <f>B25</f>
@@ -4094,7 +4142,7 @@
       </c>
       <c r="Z25" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA25" s="6" t="inlineStr">
@@ -4117,8 +4165,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B26" s="21" t="n">
-        <v>45610</v>
+      <c r="B26" s="21" t="inlineStr">
+        <is>
+          <t>11/14/2024</t>
+        </is>
       </c>
       <c r="C26" s="22">
         <f>B26</f>
@@ -4214,7 +4264,7 @@
       </c>
       <c r="Z26" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA26" s="6" t="inlineStr">
@@ -4237,8 +4287,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B27" s="21" t="n">
-        <v>45612</v>
+      <c r="B27" s="21" t="inlineStr">
+        <is>
+          <t>11/16/2024</t>
+        </is>
       </c>
       <c r="C27" s="22">
         <f>B27</f>
@@ -4334,7 +4386,7 @@
       </c>
       <c r="Z27" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA27" s="6" t="inlineStr">
@@ -4357,8 +4409,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B28" s="21" t="n">
-        <v>45618</v>
+      <c r="B28" s="21" t="inlineStr">
+        <is>
+          <t>11/22/2024</t>
+        </is>
       </c>
       <c r="C28" s="22">
         <f>B28</f>
@@ -4454,7 +4508,7 @@
       </c>
       <c r="Z28" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA28" s="6" t="inlineStr">
@@ -4477,8 +4531,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B29" s="21" t="n">
-        <v>45611</v>
+      <c r="B29" s="21" t="inlineStr">
+        <is>
+          <t>11/15/2024</t>
+        </is>
       </c>
       <c r="C29" s="22">
         <f>B29</f>
@@ -4574,7 +4630,7 @@
       </c>
       <c r="Z29" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA29" s="6" t="inlineStr">
@@ -4597,8 +4653,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B30" s="21" t="n">
-        <v>45625</v>
+      <c r="B30" s="21" t="inlineStr">
+        <is>
+          <t>11/29/2024</t>
+        </is>
       </c>
       <c r="C30" s="22">
         <f>B30</f>
@@ -4694,7 +4752,7 @@
       </c>
       <c r="Z30" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA30" s="6" t="inlineStr">
@@ -4717,8 +4775,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B31" s="21" t="n">
-        <v>45615</v>
+      <c r="B31" s="21" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
       </c>
       <c r="C31" s="22">
         <f>B31</f>
@@ -4814,7 +4874,7 @@
       </c>
       <c r="Z31" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA31" s="6" t="inlineStr">
@@ -4837,8 +4897,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B32" s="21" t="n">
-        <v>45612</v>
+      <c r="B32" s="21" t="inlineStr">
+        <is>
+          <t>11/16/2024</t>
+        </is>
       </c>
       <c r="C32" s="22">
         <f>B32</f>
@@ -4934,7 +4996,7 @@
       </c>
       <c r="Z32" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA32" s="6" t="inlineStr">
@@ -4957,8 +5019,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B33" s="21" t="n">
-        <v>45613</v>
+      <c r="B33" s="21" t="inlineStr">
+        <is>
+          <t>11/17/2024</t>
+        </is>
       </c>
       <c r="C33" s="22">
         <f>B33</f>
@@ -5054,7 +5118,7 @@
       </c>
       <c r="Z33" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA33" s="6" t="inlineStr">
@@ -5077,8 +5141,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B34" s="21" t="n">
-        <v>45620</v>
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>11/24/2024</t>
+        </is>
       </c>
       <c r="C34" s="22">
         <f>B34</f>
@@ -5174,7 +5240,7 @@
       </c>
       <c r="Z34" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA34" s="6" t="inlineStr">
@@ -5197,8 +5263,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B35" s="21" t="n">
-        <v>45619</v>
+      <c r="B35" s="21" t="inlineStr">
+        <is>
+          <t>11/23/2024</t>
+        </is>
       </c>
       <c r="C35" s="22">
         <f>B35</f>
@@ -5294,7 +5362,7 @@
       </c>
       <c r="Z35" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA35" s="6" t="inlineStr">
@@ -5317,8 +5385,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B36" s="21" t="n">
-        <v>45620</v>
+      <c r="B36" s="21" t="inlineStr">
+        <is>
+          <t>11/24/2024</t>
+        </is>
       </c>
       <c r="C36" s="22">
         <f>B36</f>
@@ -5414,7 +5484,7 @@
       </c>
       <c r="Z36" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA36" s="6" t="inlineStr">
@@ -5437,8 +5507,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B37" s="21" t="n">
-        <v>45613</v>
+      <c r="B37" s="21" t="inlineStr">
+        <is>
+          <t>11/17/2024</t>
+        </is>
       </c>
       <c r="C37" s="22">
         <f>B37</f>
@@ -5534,7 +5606,7 @@
       </c>
       <c r="Z37" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA37" s="6" t="inlineStr">
@@ -5557,8 +5629,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B38" s="21" t="n">
-        <v>45626</v>
+      <c r="B38" s="21" t="inlineStr">
+        <is>
+          <t>11/30/2024</t>
+        </is>
       </c>
       <c r="C38" s="22">
         <f>B38</f>
@@ -5654,7 +5728,7 @@
       </c>
       <c r="Z38" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA38" s="6" t="inlineStr">
@@ -5677,8 +5751,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B39" s="21" t="n">
-        <v>45612</v>
+      <c r="B39" s="21" t="inlineStr">
+        <is>
+          <t>11/16/2024</t>
+        </is>
       </c>
       <c r="C39" s="22">
         <f>B39</f>
@@ -5774,7 +5850,7 @@
       </c>
       <c r="Z39" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA39" s="6" t="inlineStr">
@@ -5797,8 +5873,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B40" s="21" t="n">
-        <v>45619</v>
+      <c r="B40" s="21" t="inlineStr">
+        <is>
+          <t>11/23/2024</t>
+        </is>
       </c>
       <c r="C40" s="22">
         <f>B40</f>
@@ -5894,7 +5972,7 @@
       </c>
       <c r="Z40" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA40" s="6" t="inlineStr">
@@ -5917,8 +5995,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B41" s="21" t="n">
-        <v>45620</v>
+      <c r="B41" s="21" t="inlineStr">
+        <is>
+          <t>11/24/2024</t>
+        </is>
       </c>
       <c r="C41" s="22">
         <f>B41</f>
@@ -6014,7 +6094,7 @@
       </c>
       <c r="Z41" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA41" s="6" t="inlineStr">
@@ -6037,8 +6117,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B42" s="21" t="n">
-        <v>45613</v>
+      <c r="B42" s="21" t="inlineStr">
+        <is>
+          <t>11/17/2024</t>
+        </is>
       </c>
       <c r="C42" s="22">
         <f>B42</f>
@@ -6134,7 +6216,7 @@
       </c>
       <c r="Z42" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA42" s="6" t="inlineStr">
@@ -6157,8 +6239,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B43" s="21" t="n">
-        <v>45626</v>
+      <c r="B43" s="21" t="inlineStr">
+        <is>
+          <t>11/30/2024</t>
+        </is>
       </c>
       <c r="C43" s="22">
         <f>B43</f>
@@ -6254,7 +6338,7 @@
       </c>
       <c r="Z43" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA43" s="6" t="inlineStr">
@@ -6277,8 +6361,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B44" s="21" t="n">
-        <v>45612</v>
+      <c r="B44" s="21" t="inlineStr">
+        <is>
+          <t>11/16/2024</t>
+        </is>
       </c>
       <c r="C44" s="22">
         <f>B44</f>
@@ -6374,7 +6460,7 @@
       </c>
       <c r="Z44" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA44" s="6" t="inlineStr">
@@ -6397,8 +6483,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B45" s="21" t="n">
-        <v>45626</v>
+      <c r="B45" s="21" t="inlineStr">
+        <is>
+          <t>11/30/2024</t>
+        </is>
       </c>
       <c r="C45" s="22">
         <f>B45</f>
@@ -6494,7 +6582,7 @@
       </c>
       <c r="Z45" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA45" s="6" t="inlineStr">
@@ -6517,8 +6605,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B46" s="21" t="n">
-        <v>45619</v>
+      <c r="B46" s="21" t="inlineStr">
+        <is>
+          <t>11/23/2024</t>
+        </is>
       </c>
       <c r="C46" s="22">
         <f>B46</f>
@@ -6614,7 +6704,7 @@
       </c>
       <c r="Z46" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA46" s="6" t="inlineStr">
@@ -6637,8 +6727,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B47" s="21" t="n">
-        <v>45618</v>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>11/22/2024</t>
+        </is>
       </c>
       <c r="C47" s="22">
         <f>B47</f>
@@ -6734,7 +6826,7 @@
       </c>
       <c r="Z47" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA47" s="6" t="inlineStr">
@@ -6757,8 +6849,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B48" s="21" t="n">
-        <v>45617</v>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>11/21/2024</t>
+        </is>
       </c>
       <c r="C48" s="22">
         <f>B48</f>
@@ -6854,7 +6948,7 @@
       </c>
       <c r="Z48" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA48" s="6" t="inlineStr">
@@ -6877,8 +6971,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B49" s="21" t="n">
-        <v>45610</v>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>11/14/2024</t>
+        </is>
       </c>
       <c r="C49" s="22">
         <f>B49</f>
@@ -6974,7 +7070,7 @@
       </c>
       <c r="Z49" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA49" s="6" t="inlineStr">
@@ -6997,8 +7093,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B50" s="21" t="n">
-        <v>45622</v>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>11/26/2024</t>
+        </is>
       </c>
       <c r="C50" s="22">
         <f>B50</f>
@@ -7094,7 +7192,7 @@
       </c>
       <c r="Z50" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA50" s="6" t="inlineStr">
@@ -7117,8 +7215,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B51" s="21" t="n">
-        <v>45619</v>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>11/23/2024</t>
+        </is>
       </c>
       <c r="C51" s="22">
         <f>B51</f>
@@ -7214,7 +7314,7 @@
       </c>
       <c r="Z51" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA51" s="6" t="inlineStr">
@@ -7237,8 +7337,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B52" s="21" t="n">
-        <v>45611</v>
+      <c r="B52" s="21" t="inlineStr">
+        <is>
+          <t>11/15/2024</t>
+        </is>
       </c>
       <c r="C52" s="22">
         <f>B52</f>
@@ -7334,7 +7436,7 @@
       </c>
       <c r="Z52" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA52" s="6" t="inlineStr">
@@ -7357,8 +7459,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B53" s="21" t="n">
-        <v>45620</v>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>11/24/2024</t>
+        </is>
       </c>
       <c r="C53" s="22">
         <f>B53</f>
@@ -7454,7 +7558,7 @@
       </c>
       <c r="Z53" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA53" s="6" t="inlineStr">
@@ -7477,8 +7581,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B54" s="21" t="n">
-        <v>45615</v>
+      <c r="B54" s="21" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
       </c>
       <c r="C54" s="22">
         <f>B54</f>
@@ -7574,7 +7680,7 @@
       </c>
       <c r="Z54" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA54" s="6" t="inlineStr">
@@ -7597,8 +7703,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B55" s="21" t="n">
-        <v>45614</v>
+      <c r="B55" s="21" t="inlineStr">
+        <is>
+          <t>11/18/2024</t>
+        </is>
       </c>
       <c r="C55" s="22">
         <f>B55</f>
@@ -7694,7 +7802,7 @@
       </c>
       <c r="Z55" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA55" s="6" t="inlineStr">
@@ -7717,8 +7825,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B56" s="21" t="n">
-        <v>45626</v>
+      <c r="B56" s="21" t="inlineStr">
+        <is>
+          <t>11/30/2024</t>
+        </is>
       </c>
       <c r="C56" s="22">
         <f>B56</f>
@@ -7814,7 +7924,7 @@
       </c>
       <c r="Z56" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA56" s="6" t="inlineStr">
@@ -7837,8 +7947,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B57" s="21" t="n">
-        <v>45613</v>
+      <c r="B57" s="21" t="inlineStr">
+        <is>
+          <t>11/17/2024</t>
+        </is>
       </c>
       <c r="C57" s="22">
         <f>B57</f>
@@ -7934,7 +8046,7 @@
       </c>
       <c r="Z57" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA57" s="6" t="inlineStr">
@@ -7957,8 +8069,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B58" s="21" t="n">
-        <v>45624</v>
+      <c r="B58" s="21" t="inlineStr">
+        <is>
+          <t>11/28/2024</t>
+        </is>
       </c>
       <c r="C58" s="22">
         <f>B58</f>
@@ -8054,7 +8168,7 @@
       </c>
       <c r="Z58" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA58" s="6" t="inlineStr">
@@ -8077,8 +8191,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B59" s="21" t="n">
-        <v>45623</v>
+      <c r="B59" s="21" t="inlineStr">
+        <is>
+          <t>11/27/2024</t>
+        </is>
       </c>
       <c r="C59" s="22">
         <f>B59</f>
@@ -8174,7 +8290,7 @@
       </c>
       <c r="Z59" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA59" s="6" t="inlineStr">
@@ -8197,8 +8313,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B60" s="21" t="n">
-        <v>45616</v>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
+          <t>11/20/2024</t>
+        </is>
       </c>
       <c r="C60" s="22">
         <f>B60</f>
@@ -8294,7 +8412,7 @@
       </c>
       <c r="Z60" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA60" s="6" t="inlineStr">
@@ -8317,8 +8435,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B61" s="21" t="n">
-        <v>45621</v>
+      <c r="B61" s="21" t="inlineStr">
+        <is>
+          <t>11/25/2024</t>
+        </is>
       </c>
       <c r="C61" s="22">
         <f>B61</f>
@@ -8414,7 +8534,7 @@
       </c>
       <c r="Z61" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA61" s="6" t="inlineStr">
@@ -8437,8 +8557,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B62" s="21" t="n">
-        <v>45617</v>
+      <c r="B62" s="21" t="inlineStr">
+        <is>
+          <t>11/21/2024</t>
+        </is>
       </c>
       <c r="C62" s="22">
         <f>B62</f>
@@ -8534,7 +8656,7 @@
       </c>
       <c r="Z62" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA62" s="6" t="inlineStr">
@@ -8557,8 +8679,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B63" s="21" t="n">
-        <v>45622</v>
+      <c r="B63" s="21" t="inlineStr">
+        <is>
+          <t>11/26/2024</t>
+        </is>
       </c>
       <c r="C63" s="22">
         <f>B63</f>
@@ -8654,7 +8778,7 @@
       </c>
       <c r="Z63" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA63" s="6" t="inlineStr">
@@ -8677,8 +8801,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B64" s="21" t="n">
-        <v>45614</v>
+      <c r="B64" s="21" t="inlineStr">
+        <is>
+          <t>11/18/2024</t>
+        </is>
       </c>
       <c r="C64" s="22">
         <f>B64</f>
@@ -8774,7 +8900,7 @@
       </c>
       <c r="Z64" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA64" s="6" t="inlineStr">
@@ -8797,8 +8923,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B65" s="21" t="n">
-        <v>45615</v>
+      <c r="B65" s="21" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
       </c>
       <c r="C65" s="22">
         <f>B65</f>
@@ -8894,7 +9022,7 @@
       </c>
       <c r="Z65" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA65" s="6" t="inlineStr">
@@ -8917,8 +9045,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B66" s="21" t="n">
-        <v>45612</v>
+      <c r="B66" s="21" t="inlineStr">
+        <is>
+          <t>11/16/2024</t>
+        </is>
       </c>
       <c r="C66" s="22">
         <f>B66</f>
@@ -9014,7 +9144,7 @@
       </c>
       <c r="Z66" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA66" s="6" t="inlineStr">
@@ -9037,8 +9167,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B67" s="21" t="n">
-        <v>45616</v>
+      <c r="B67" s="21" t="inlineStr">
+        <is>
+          <t>11/20/2024</t>
+        </is>
       </c>
       <c r="C67" s="22">
         <f>B67</f>
@@ -9134,7 +9266,7 @@
       </c>
       <c r="Z67" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA67" s="6" t="inlineStr">
@@ -9157,8 +9289,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B68" s="21" t="n">
-        <v>45622</v>
+      <c r="B68" s="21" t="inlineStr">
+        <is>
+          <t>11/26/2024</t>
+        </is>
       </c>
       <c r="C68" s="22">
         <f>B68</f>
@@ -9254,7 +9388,7 @@
       </c>
       <c r="Z68" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA68" s="6" t="inlineStr">
@@ -9277,8 +9411,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B69" s="21" t="n">
-        <v>45611</v>
+      <c r="B69" s="21" t="inlineStr">
+        <is>
+          <t>11/15/2024</t>
+        </is>
       </c>
       <c r="C69" s="22">
         <f>B69</f>
@@ -9374,7 +9510,7 @@
       </c>
       <c r="Z69" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA69" s="6" t="inlineStr">
@@ -9397,8 +9533,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B70" s="21" t="n">
-        <v>45614</v>
+      <c r="B70" s="21" t="inlineStr">
+        <is>
+          <t>11/18/2024</t>
+        </is>
       </c>
       <c r="C70" s="22">
         <f>B70</f>
@@ -9494,7 +9632,7 @@
       </c>
       <c r="Z70" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA70" s="6" t="inlineStr">
@@ -9517,8 +9655,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B71" s="21" t="n">
-        <v>45620</v>
+      <c r="B71" s="21" t="inlineStr">
+        <is>
+          <t>11/24/2024</t>
+        </is>
       </c>
       <c r="C71" s="22">
         <f>B71</f>
@@ -9614,7 +9754,7 @@
       </c>
       <c r="Z71" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA71" s="6" t="inlineStr">
@@ -9637,8 +9777,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B72" s="21" t="n">
-        <v>45623</v>
+      <c r="B72" s="21" t="inlineStr">
+        <is>
+          <t>11/27/2024</t>
+        </is>
       </c>
       <c r="C72" s="22">
         <f>B72</f>
@@ -9734,7 +9876,7 @@
       </c>
       <c r="Z72" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA72" s="6" t="inlineStr">
@@ -9757,8 +9899,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B73" s="21" t="n">
-        <v>45612</v>
+      <c r="B73" s="21" t="inlineStr">
+        <is>
+          <t>11/16/2024</t>
+        </is>
       </c>
       <c r="C73" s="22">
         <f>B73</f>
@@ -9854,7 +9998,7 @@
       </c>
       <c r="Z73" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA73" s="6" t="inlineStr">
@@ -9877,8 +10021,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B74" s="21" t="n">
-        <v>45625</v>
+      <c r="B74" s="21" t="inlineStr">
+        <is>
+          <t>11/29/2024</t>
+        </is>
       </c>
       <c r="C74" s="22">
         <f>B74</f>
@@ -9974,7 +10120,7 @@
       </c>
       <c r="Z74" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA74" s="6" t="inlineStr">
@@ -9997,8 +10143,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B75" s="21" t="n">
-        <v>45611</v>
+      <c r="B75" s="21" t="inlineStr">
+        <is>
+          <t>11/15/2024</t>
+        </is>
       </c>
       <c r="C75" s="22">
         <f>B75</f>
@@ -10094,7 +10242,7 @@
       </c>
       <c r="Z75" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA75" s="6" t="inlineStr">
@@ -10117,8 +10265,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B76" s="21" t="n">
-        <v>45615</v>
+      <c r="B76" s="21" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
       </c>
       <c r="C76" s="22">
         <f>B76</f>
@@ -10214,7 +10364,7 @@
       </c>
       <c r="Z76" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA76" s="6" t="inlineStr">
@@ -10237,8 +10387,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B77" s="21" t="n">
-        <v>45616</v>
+      <c r="B77" s="21" t="inlineStr">
+        <is>
+          <t>11/20/2024</t>
+        </is>
       </c>
       <c r="C77" s="22">
         <f>B77</f>
@@ -10334,7 +10486,7 @@
       </c>
       <c r="Z77" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA77" s="6" t="inlineStr">
@@ -10357,8 +10509,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B78" s="21" t="n">
-        <v>45617</v>
+      <c r="B78" s="21" t="inlineStr">
+        <is>
+          <t>11/21/2024</t>
+        </is>
       </c>
       <c r="C78" s="22">
         <f>B78</f>
@@ -10454,7 +10608,7 @@
       </c>
       <c r="Z78" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA78" s="6" t="inlineStr">
@@ -10477,8 +10631,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B79" s="21" t="n">
-        <v>45620</v>
+      <c r="B79" s="21" t="inlineStr">
+        <is>
+          <t>11/24/2024</t>
+        </is>
       </c>
       <c r="C79" s="22">
         <f>B79</f>
@@ -10574,7 +10730,7 @@
       </c>
       <c r="Z79" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA79" s="6" t="inlineStr">
@@ -10597,8 +10753,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B80" s="21" t="n">
-        <v>45623</v>
+      <c r="B80" s="21" t="inlineStr">
+        <is>
+          <t>11/27/2024</t>
+        </is>
       </c>
       <c r="C80" s="22">
         <f>B80</f>
@@ -10694,7 +10852,7 @@
       </c>
       <c r="Z80" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA80" s="6" t="inlineStr">
@@ -10717,8 +10875,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B81" s="21" t="n">
-        <v>45625</v>
+      <c r="B81" s="21" t="inlineStr">
+        <is>
+          <t>11/29/2024</t>
+        </is>
       </c>
       <c r="C81" s="22">
         <f>B81</f>
@@ -10814,7 +10974,7 @@
       </c>
       <c r="Z81" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA81" s="6" t="inlineStr">
@@ -10837,8 +10997,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B82" s="21" t="n">
-        <v>45631</v>
+      <c r="B82" s="21" t="inlineStr">
+        <is>
+          <t>12/5/2024</t>
+        </is>
       </c>
       <c r="C82" s="22">
         <f>B82</f>
@@ -10934,7 +11096,7 @@
       </c>
       <c r="Z82" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA82" s="6" t="inlineStr">
@@ -10957,8 +11119,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B83" s="21" t="n">
-        <v>45655</v>
+      <c r="B83" s="21" t="inlineStr">
+        <is>
+          <t>12/29/2024</t>
+        </is>
       </c>
       <c r="C83" s="22">
         <f>B83</f>
@@ -11054,7 +11218,7 @@
       </c>
       <c r="Z83" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA83" s="6" t="inlineStr">
@@ -11077,8 +11241,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B84" s="21" t="n">
-        <v>45639</v>
+      <c r="B84" s="21" t="inlineStr">
+        <is>
+          <t>12/13/2024</t>
+        </is>
       </c>
       <c r="C84" s="22">
         <f>B84</f>
@@ -11174,7 +11340,7 @@
       </c>
       <c r="Z84" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA84" s="6" t="inlineStr">
@@ -11197,8 +11363,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B85" s="21" t="n">
-        <v>45653</v>
+      <c r="B85" s="21" t="inlineStr">
+        <is>
+          <t>12/27/2024</t>
+        </is>
       </c>
       <c r="C85" s="22">
         <f>B85</f>
@@ -11294,7 +11462,7 @@
       </c>
       <c r="Z85" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA85" s="6" t="inlineStr">
@@ -11317,8 +11485,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B86" s="21" t="n">
-        <v>45652</v>
+      <c r="B86" s="21" t="inlineStr">
+        <is>
+          <t>12/26/2024</t>
+        </is>
       </c>
       <c r="C86" s="22">
         <f>B86</f>
@@ -11414,7 +11584,7 @@
       </c>
       <c r="Z86" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA86" s="6" t="inlineStr">
@@ -11437,8 +11607,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B87" s="21" t="n">
-        <v>45636</v>
+      <c r="B87" s="21" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
       </c>
       <c r="C87" s="22">
         <f>B87</f>
@@ -11534,7 +11706,7 @@
       </c>
       <c r="Z87" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA87" s="6" t="inlineStr">
@@ -11557,8 +11729,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B88" s="21" t="n">
-        <v>45642</v>
+      <c r="B88" s="21" t="inlineStr">
+        <is>
+          <t>12/16/2024</t>
+        </is>
       </c>
       <c r="C88" s="22">
         <f>B88</f>
@@ -11654,7 +11828,7 @@
       </c>
       <c r="Z88" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA88" s="6" t="inlineStr">
@@ -11677,8 +11851,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B89" s="21" t="n">
-        <v>45650</v>
+      <c r="B89" s="21" t="inlineStr">
+        <is>
+          <t>12/24/2024</t>
+        </is>
       </c>
       <c r="C89" s="22">
         <f>B89</f>
@@ -11774,7 +11950,7 @@
       </c>
       <c r="Z89" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA89" s="6" t="inlineStr">
@@ -11797,8 +11973,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B90" s="21" t="n">
-        <v>45657</v>
+      <c r="B90" s="21" t="inlineStr">
+        <is>
+          <t>12/31/2024</t>
+        </is>
       </c>
       <c r="C90" s="22">
         <f>B90</f>
@@ -11894,7 +12072,7 @@
       </c>
       <c r="Z90" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA90" s="6" t="inlineStr">
@@ -11917,8 +12095,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B91" s="21" t="n">
-        <v>45635</v>
+      <c r="B91" s="21" t="inlineStr">
+        <is>
+          <t>12/9/2024</t>
+        </is>
       </c>
       <c r="C91" s="22">
         <f>B91</f>
@@ -12014,7 +12194,7 @@
       </c>
       <c r="Z91" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA91" s="6" t="inlineStr">
@@ -12037,8 +12217,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B92" s="21" t="n">
-        <v>45649</v>
+      <c r="B92" s="21" t="inlineStr">
+        <is>
+          <t>12/23/2024</t>
+        </is>
       </c>
       <c r="C92" s="22">
         <f>B92</f>
@@ -12134,7 +12316,7 @@
       </c>
       <c r="Z92" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA92" s="6" t="inlineStr">
@@ -12157,8 +12339,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B93" s="21" t="n">
-        <v>45648</v>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>12/22/2024</t>
+        </is>
       </c>
       <c r="C93" s="22">
         <f>B93</f>
@@ -12254,7 +12438,7 @@
       </c>
       <c r="Z93" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA93" s="6" t="inlineStr">
@@ -12277,8 +12461,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B94" s="21" t="n">
-        <v>45630</v>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>12/4/2024</t>
+        </is>
       </c>
       <c r="C94" s="22">
         <f>B94</f>
@@ -12374,7 +12560,7 @@
       </c>
       <c r="Z94" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA94" s="6" t="inlineStr">
@@ -12397,8 +12583,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B95" s="21" t="n">
-        <v>45632</v>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>12/6/2024</t>
+        </is>
       </c>
       <c r="C95" s="22">
         <f>B95</f>
@@ -12494,7 +12682,7 @@
       </c>
       <c r="Z95" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA95" s="6" t="inlineStr">
@@ -12517,8 +12705,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B96" s="21" t="n">
-        <v>45651</v>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>12/25/2024</t>
+        </is>
       </c>
       <c r="C96" s="22">
         <f>B96</f>
@@ -12614,7 +12804,7 @@
       </c>
       <c r="Z96" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA96" s="6" t="inlineStr">
@@ -12637,8 +12827,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B97" s="21" t="n">
-        <v>45638</v>
+      <c r="B97" s="21" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
       </c>
       <c r="C97" s="22">
         <f>B97</f>
@@ -12734,7 +12926,7 @@
       </c>
       <c r="Z97" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA97" s="6" t="inlineStr">
@@ -12757,8 +12949,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B98" s="21" t="n">
-        <v>45647</v>
+      <c r="B98" s="21" t="inlineStr">
+        <is>
+          <t>12/21/2024</t>
+        </is>
       </c>
       <c r="C98" s="22">
         <f>B98</f>
@@ -12854,7 +13048,7 @@
       </c>
       <c r="Z98" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA98" s="6" t="inlineStr">
@@ -12877,8 +13071,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B99" s="21" t="n">
-        <v>45634</v>
+      <c r="B99" s="21" t="inlineStr">
+        <is>
+          <t>12/8/2024</t>
+        </is>
       </c>
       <c r="C99" s="22">
         <f>B99</f>
@@ -12974,7 +13170,7 @@
       </c>
       <c r="Z99" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA99" s="6" t="inlineStr">
@@ -12997,8 +13193,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B100" s="21" t="n">
-        <v>45637</v>
+      <c r="B100" s="21" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
       </c>
       <c r="C100" s="22">
         <f>B100</f>
@@ -13094,7 +13292,7 @@
       </c>
       <c r="Z100" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA100" s="6" t="inlineStr">
@@ -13117,8 +13315,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B101" s="21" t="n">
-        <v>45640</v>
+      <c r="B101" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C101" s="22">
         <f>B101</f>
@@ -13214,7 +13414,7 @@
       </c>
       <c r="Z101" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA101" s="6" t="inlineStr">
@@ -13237,8 +13437,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B102" s="21" t="n">
-        <v>45650</v>
+      <c r="B102" s="21" t="inlineStr">
+        <is>
+          <t>12/24/2024</t>
+        </is>
       </c>
       <c r="C102" s="22">
         <f>B102</f>
@@ -13334,7 +13536,7 @@
       </c>
       <c r="Z102" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA102" s="6" t="inlineStr">
@@ -13357,8 +13559,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B103" s="21" t="n">
-        <v>45657</v>
+      <c r="B103" s="21" t="inlineStr">
+        <is>
+          <t>12/31/2024</t>
+        </is>
       </c>
       <c r="C103" s="22">
         <f>B103</f>
@@ -13454,7 +13658,7 @@
       </c>
       <c r="Z103" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA103" s="6" t="inlineStr">
@@ -13477,8 +13681,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B104" s="21" t="n">
-        <v>45644</v>
+      <c r="B104" s="21" t="inlineStr">
+        <is>
+          <t>12/18/2024</t>
+        </is>
       </c>
       <c r="C104" s="22">
         <f>B104</f>
@@ -13574,7 +13780,7 @@
       </c>
       <c r="Z104" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA104" s="6" t="inlineStr">
@@ -13597,8 +13803,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B105" s="21" t="n">
-        <v>45643</v>
+      <c r="B105" s="21" t="inlineStr">
+        <is>
+          <t>12/17/2024</t>
+        </is>
       </c>
       <c r="C105" s="22">
         <f>B105</f>
@@ -13694,7 +13902,7 @@
       </c>
       <c r="Z105" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA105" s="6" t="inlineStr">
@@ -13717,8 +13925,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B106" s="21" t="n">
-        <v>45655</v>
+      <c r="B106" s="21" t="inlineStr">
+        <is>
+          <t>12/29/2024</t>
+        </is>
       </c>
       <c r="C106" s="22">
         <f>B106</f>
@@ -13814,7 +14024,7 @@
       </c>
       <c r="Z106" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA106" s="6" t="inlineStr">
@@ -13837,8 +14047,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B107" s="21" t="n">
-        <v>45633</v>
+      <c r="B107" s="21" t="inlineStr">
+        <is>
+          <t>12/7/2024</t>
+        </is>
       </c>
       <c r="C107" s="22">
         <f>B107</f>
@@ -13934,7 +14146,7 @@
       </c>
       <c r="Z107" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA107" s="6" t="inlineStr">
@@ -13957,8 +14169,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B108" s="21" t="n">
-        <v>45629</v>
+      <c r="B108" s="21" t="inlineStr">
+        <is>
+          <t>12/3/2024</t>
+        </is>
       </c>
       <c r="C108" s="22">
         <f>B108</f>
@@ -14054,7 +14268,7 @@
       </c>
       <c r="Z108" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA108" s="6" t="inlineStr">
@@ -14077,8 +14291,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B109" s="21" t="n">
-        <v>45656</v>
+      <c r="B109" s="21" t="inlineStr">
+        <is>
+          <t>12/30/2024</t>
+        </is>
       </c>
       <c r="C109" s="22">
         <f>B109</f>
@@ -14174,7 +14390,7 @@
       </c>
       <c r="Z109" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA109" s="6" t="inlineStr">
@@ -14197,8 +14413,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B110" s="21" t="n">
-        <v>45639</v>
+      <c r="B110" s="21" t="inlineStr">
+        <is>
+          <t>12/13/2024</t>
+        </is>
       </c>
       <c r="C110" s="22">
         <f>B110</f>
@@ -14294,7 +14512,7 @@
       </c>
       <c r="Z110" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA110" s="6" t="inlineStr">
@@ -14317,8 +14535,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B111" s="21" t="n">
-        <v>45645</v>
+      <c r="B111" s="21" t="inlineStr">
+        <is>
+          <t>12/19/2024</t>
+        </is>
       </c>
       <c r="C111" s="22">
         <f>B111</f>
@@ -14414,7 +14634,7 @@
       </c>
       <c r="Z111" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA111" s="6" t="inlineStr">
@@ -14437,8 +14657,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B112" s="21" t="n">
-        <v>45638</v>
+      <c r="B112" s="21" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
       </c>
       <c r="C112" s="22">
         <f>B112</f>
@@ -14534,7 +14756,7 @@
       </c>
       <c r="Z112" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA112" s="6" t="inlineStr">
@@ -14557,8 +14779,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B113" s="21" t="n">
-        <v>45636</v>
+      <c r="B113" s="21" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
       </c>
       <c r="C113" s="22">
         <f>B113</f>
@@ -14654,7 +14878,7 @@
       </c>
       <c r="Z113" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA113" s="6" t="inlineStr">
@@ -14677,8 +14901,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B114" s="21" t="n">
-        <v>45647</v>
+      <c r="B114" s="21" t="inlineStr">
+        <is>
+          <t>12/21/2024</t>
+        </is>
       </c>
       <c r="C114" s="22">
         <f>B114</f>
@@ -14774,7 +15000,7 @@
       </c>
       <c r="Z114" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA114" s="6" t="inlineStr">
@@ -14797,8 +15023,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B115" s="21" t="n">
-        <v>45648</v>
+      <c r="B115" s="21" t="inlineStr">
+        <is>
+          <t>12/22/2024</t>
+        </is>
       </c>
       <c r="C115" s="22">
         <f>B115</f>
@@ -14894,7 +15122,7 @@
       </c>
       <c r="Z115" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA115" s="6" t="inlineStr">
@@ -14917,8 +15145,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B116" s="21" t="n">
-        <v>45651</v>
+      <c r="B116" s="21" t="inlineStr">
+        <is>
+          <t>12/25/2024</t>
+        </is>
       </c>
       <c r="C116" s="22">
         <f>B116</f>
@@ -15014,7 +15244,7 @@
       </c>
       <c r="Z116" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA116" s="6" t="inlineStr">
@@ -15037,8 +15267,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B117" s="21" t="n">
-        <v>45642</v>
+      <c r="B117" s="21" t="inlineStr">
+        <is>
+          <t>12/16/2024</t>
+        </is>
       </c>
       <c r="C117" s="22">
         <f>B117</f>
@@ -15134,7 +15366,7 @@
       </c>
       <c r="Z117" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA117" s="6" t="inlineStr">
@@ -15157,8 +15389,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B118" s="21" t="n">
-        <v>45634</v>
+      <c r="B118" s="21" t="inlineStr">
+        <is>
+          <t>12/8/2024</t>
+        </is>
       </c>
       <c r="C118" s="22">
         <f>B118</f>
@@ -15254,7 +15488,7 @@
       </c>
       <c r="Z118" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA118" s="6" t="inlineStr">
@@ -15277,8 +15511,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B119" s="21" t="n">
-        <v>45647</v>
+      <c r="B119" s="21" t="inlineStr">
+        <is>
+          <t>12/21/2024</t>
+        </is>
       </c>
       <c r="C119" s="22">
         <f>B119</f>
@@ -15374,7 +15610,7 @@
       </c>
       <c r="Z119" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA119" s="6" t="inlineStr">
@@ -15397,8 +15633,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B120" s="21" t="n">
-        <v>45632</v>
+      <c r="B120" s="21" t="inlineStr">
+        <is>
+          <t>12/6/2024</t>
+        </is>
       </c>
       <c r="C120" s="22">
         <f>B120</f>
@@ -15494,7 +15732,7 @@
       </c>
       <c r="Z120" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA120" s="6" t="inlineStr">
@@ -15517,8 +15755,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B121" s="21" t="n">
-        <v>45654</v>
+      <c r="B121" s="21" t="inlineStr">
+        <is>
+          <t>12/28/2024</t>
+        </is>
       </c>
       <c r="C121" s="22">
         <f>B121</f>
@@ -15614,7 +15854,7 @@
       </c>
       <c r="Z121" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA121" s="6" t="inlineStr">
@@ -15637,8 +15877,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B122" s="21" t="n">
-        <v>45652</v>
+      <c r="B122" s="21" t="inlineStr">
+        <is>
+          <t>12/26/2024</t>
+        </is>
       </c>
       <c r="C122" s="22">
         <f>B122</f>
@@ -15734,7 +15976,7 @@
       </c>
       <c r="Z122" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA122" s="6" t="inlineStr">
@@ -15757,8 +15999,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B123" s="21" t="n">
-        <v>45648</v>
+      <c r="B123" s="21" t="inlineStr">
+        <is>
+          <t>12/22/2024</t>
+        </is>
       </c>
       <c r="C123" s="22">
         <f>B123</f>
@@ -15854,7 +16098,7 @@
       </c>
       <c r="Z123" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA123" s="6" t="inlineStr">
@@ -15877,8 +16121,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B124" s="21" t="n">
-        <v>45646</v>
+      <c r="B124" s="21" t="inlineStr">
+        <is>
+          <t>12/20/2024</t>
+        </is>
       </c>
       <c r="C124" s="22">
         <f>B124</f>
@@ -15974,7 +16220,7 @@
       </c>
       <c r="Z124" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA124" s="6" t="inlineStr">
@@ -15997,8 +16243,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B125" s="21" t="n">
-        <v>45638</v>
+      <c r="B125" s="21" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
       </c>
       <c r="C125" s="22">
         <f>B125</f>
@@ -16094,7 +16342,7 @@
       </c>
       <c r="Z125" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA125" s="6" t="inlineStr">
@@ -16117,8 +16365,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B126" s="21" t="n">
-        <v>45642</v>
+      <c r="B126" s="21" t="inlineStr">
+        <is>
+          <t>12/16/2024</t>
+        </is>
       </c>
       <c r="C126" s="22">
         <f>B126</f>
@@ -16214,7 +16464,7 @@
       </c>
       <c r="Z126" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA126" s="6" t="inlineStr">
@@ -16237,8 +16487,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B127" s="21" t="n">
-        <v>45641</v>
+      <c r="B127" s="21" t="inlineStr">
+        <is>
+          <t>12/15/2024</t>
+        </is>
       </c>
       <c r="C127" s="22">
         <f>B127</f>
@@ -16334,7 +16586,7 @@
       </c>
       <c r="Z127" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA127" s="6" t="inlineStr">
@@ -16357,8 +16609,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B128" s="21" t="n">
-        <v>45636</v>
+      <c r="B128" s="21" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
       </c>
       <c r="C128" s="22">
         <f>B128</f>
@@ -16454,7 +16708,7 @@
       </c>
       <c r="Z128" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA128" s="6" t="inlineStr">
@@ -16477,8 +16731,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B129" s="21" t="n">
-        <v>45644</v>
+      <c r="B129" s="21" t="inlineStr">
+        <is>
+          <t>12/18/2024</t>
+        </is>
       </c>
       <c r="C129" s="22">
         <f>B129</f>
@@ -16574,7 +16830,7 @@
       </c>
       <c r="Z129" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA129" s="6" t="inlineStr">
@@ -16597,8 +16853,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B130" s="21" t="n">
-        <v>45629</v>
+      <c r="B130" s="21" t="inlineStr">
+        <is>
+          <t>12/3/2024</t>
+        </is>
       </c>
       <c r="C130" s="22">
         <f>B130</f>
@@ -16694,7 +16952,7 @@
       </c>
       <c r="Z130" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA130" s="6" t="inlineStr">
@@ -16717,8 +16975,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B131" s="21" t="n">
-        <v>45628</v>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>12/2/2024</t>
+        </is>
       </c>
       <c r="C131" s="22">
         <f>B131</f>
@@ -16814,7 +17074,7 @@
       </c>
       <c r="Z131" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA131" s="6" t="inlineStr">
@@ -16837,8 +17097,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B132" s="21" t="n">
-        <v>45627</v>
+      <c r="B132" s="21" t="inlineStr">
+        <is>
+          <t>12/1/2024</t>
+        </is>
       </c>
       <c r="C132" s="22">
         <f>B132</f>
@@ -16934,7 +17196,7 @@
       </c>
       <c r="Z132" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA132" s="6" t="inlineStr">
@@ -16957,8 +17219,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B133" s="21" t="n">
-        <v>45636</v>
+      <c r="B133" s="21" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
       </c>
       <c r="C133" s="22">
         <f>B133</f>
@@ -17054,7 +17318,7 @@
       </c>
       <c r="Z133" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA133" s="6" t="inlineStr">
@@ -17077,8 +17341,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B134" s="21" t="n">
-        <v>45633</v>
+      <c r="B134" s="21" t="inlineStr">
+        <is>
+          <t>12/7/2024</t>
+        </is>
       </c>
       <c r="C134" s="22">
         <f>B134</f>
@@ -17174,7 +17440,7 @@
       </c>
       <c r="Z134" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA134" s="6" t="inlineStr">
@@ -17197,8 +17463,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B135" s="21" t="n">
-        <v>45641</v>
+      <c r="B135" s="21" t="inlineStr">
+        <is>
+          <t>12/15/2024</t>
+        </is>
       </c>
       <c r="C135" s="22">
         <f>B135</f>
@@ -17294,7 +17562,7 @@
       </c>
       <c r="Z135" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA135" s="6" t="inlineStr">
@@ -17317,8 +17585,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B136" s="21" t="n">
-        <v>45628</v>
+      <c r="B136" s="21" t="inlineStr">
+        <is>
+          <t>12/2/2024</t>
+        </is>
       </c>
       <c r="C136" s="22">
         <f>B136</f>
@@ -17414,7 +17684,7 @@
       </c>
       <c r="Z136" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA136" s="6" t="inlineStr">
@@ -17437,8 +17707,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B137" s="21" t="n">
-        <v>45637</v>
+      <c r="B137" s="21" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
       </c>
       <c r="C137" s="22">
         <f>B137</f>
@@ -17534,7 +17806,7 @@
       </c>
       <c r="Z137" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA137" s="6" t="inlineStr">
@@ -17557,8 +17829,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B138" s="21" t="n">
-        <v>45639</v>
+      <c r="B138" s="21" t="inlineStr">
+        <is>
+          <t>12/13/2024</t>
+        </is>
       </c>
       <c r="C138" s="22">
         <f>B138</f>
@@ -17654,7 +17928,7 @@
       </c>
       <c r="Z138" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA138" s="6" t="inlineStr">
@@ -17677,8 +17951,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B139" s="21" t="n">
-        <v>45655</v>
+      <c r="B139" s="21" t="inlineStr">
+        <is>
+          <t>12/29/2024</t>
+        </is>
       </c>
       <c r="C139" s="22">
         <f>B139</f>
@@ -17774,7 +18050,7 @@
       </c>
       <c r="Z139" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA139" s="6" t="inlineStr">
@@ -17797,8 +18073,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B140" s="21" t="n">
-        <v>45650</v>
+      <c r="B140" s="21" t="inlineStr">
+        <is>
+          <t>12/24/2024</t>
+        </is>
       </c>
       <c r="C140" s="22">
         <f>B140</f>
@@ -17894,7 +18172,7 @@
       </c>
       <c r="Z140" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA140" s="6" t="inlineStr">
@@ -17917,8 +18195,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B141" s="21" t="n">
-        <v>45640</v>
+      <c r="B141" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C141" s="22">
         <f>B141</f>
@@ -18014,7 +18294,7 @@
       </c>
       <c r="Z141" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA141" s="6" t="inlineStr">
@@ -18037,8 +18317,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B142" s="21" t="n">
-        <v>45648</v>
+      <c r="B142" s="21" t="inlineStr">
+        <is>
+          <t>12/22/2024</t>
+        </is>
       </c>
       <c r="C142" s="22">
         <f>B142</f>
@@ -18134,7 +18416,7 @@
       </c>
       <c r="Z142" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA142" s="6" t="inlineStr">
@@ -18157,8 +18439,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B143" s="21" t="n">
-        <v>45651</v>
+      <c r="B143" s="21" t="inlineStr">
+        <is>
+          <t>12/25/2024</t>
+        </is>
       </c>
       <c r="C143" s="22">
         <f>B143</f>
@@ -18254,7 +18538,7 @@
       </c>
       <c r="Z143" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA143" s="6" t="inlineStr">
@@ -18277,8 +18561,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B144" s="21" t="n">
-        <v>45646</v>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>12/20/2024</t>
+        </is>
       </c>
       <c r="C144" s="22">
         <f>B144</f>
@@ -18374,7 +18660,7 @@
       </c>
       <c r="Z144" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA144" s="6" t="inlineStr">
@@ -18397,8 +18683,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B145" s="21" t="n">
-        <v>45630</v>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>12/4/2024</t>
+        </is>
       </c>
       <c r="C145" s="22">
         <f>B145</f>
@@ -18494,7 +18782,7 @@
       </c>
       <c r="Z145" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA145" s="6" t="inlineStr">
@@ -18517,8 +18805,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B146" s="21" t="n">
-        <v>45654</v>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>12/28/2024</t>
+        </is>
       </c>
       <c r="C146" s="22">
         <f>B146</f>
@@ -18614,7 +18904,7 @@
       </c>
       <c r="Z146" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA146" s="6" t="inlineStr">
@@ -18637,8 +18927,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B147" s="21" t="n">
-        <v>45633</v>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>12/7/2024</t>
+        </is>
       </c>
       <c r="C147" s="22">
         <f>B147</f>
@@ -18734,7 +19026,7 @@
       </c>
       <c r="Z147" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA147" s="6" t="inlineStr">
@@ -18757,8 +19049,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B148" s="21" t="n">
-        <v>45640</v>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C148" s="22">
         <f>B148</f>
@@ -18854,7 +19148,7 @@
       </c>
       <c r="Z148" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA148" s="6" t="inlineStr">
@@ -18877,8 +19171,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B149" s="21" t="n">
-        <v>45647</v>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>12/21/2024</t>
+        </is>
       </c>
       <c r="C149" s="22">
         <f>B149</f>
@@ -18974,7 +19270,7 @@
       </c>
       <c r="Z149" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA149" s="6" t="inlineStr">
@@ -18997,8 +19293,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B150" s="21" t="n">
-        <v>45641</v>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>12/15/2024</t>
+        </is>
       </c>
       <c r="C150" s="22">
         <f>B150</f>
@@ -19094,7 +19392,7 @@
       </c>
       <c r="Z150" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA150" s="6" t="inlineStr">
@@ -19117,8 +19415,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B151" s="21" t="n">
-        <v>45634</v>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>12/8/2024</t>
+        </is>
       </c>
       <c r="C151" s="22">
         <f>B151</f>
@@ -19214,7 +19514,7 @@
       </c>
       <c r="Z151" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA151" s="6" t="inlineStr">
@@ -19237,8 +19537,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B152" s="21" t="n">
-        <v>45633</v>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>12/7/2024</t>
+        </is>
       </c>
       <c r="C152" s="22">
         <f>B152</f>
@@ -19334,7 +19636,7 @@
       </c>
       <c r="Z152" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA152" s="6" t="inlineStr">
@@ -19357,8 +19659,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B153" s="21" t="n">
-        <v>45640</v>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C153" s="22">
         <f>B153</f>
@@ -19454,7 +19758,7 @@
       </c>
       <c r="Z153" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA153" s="6" t="inlineStr">
@@ -19477,8 +19781,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B154" s="21" t="n">
-        <v>45627</v>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>12/1/2024</t>
+        </is>
       </c>
       <c r="C154" s="22">
         <f>B154</f>
@@ -19574,7 +19880,7 @@
       </c>
       <c r="Z154" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA154" s="6" t="inlineStr">
@@ -19597,8 +19903,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B155" s="21" t="n">
-        <v>45627</v>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>12/1/2024</t>
+        </is>
       </c>
       <c r="C155" s="22">
         <f>B155</f>
@@ -19694,7 +20002,7 @@
       </c>
       <c r="Z155" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA155" s="6" t="inlineStr">
@@ -19717,8 +20025,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B156" s="21" t="n">
-        <v>45634</v>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>12/8/2024</t>
+        </is>
       </c>
       <c r="C156" s="22">
         <f>B156</f>
@@ -19814,7 +20124,7 @@
       </c>
       <c r="Z156" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA156" s="6" t="inlineStr">
@@ -19837,8 +20147,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B157" s="21" t="n">
-        <v>45647</v>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>12/21/2024</t>
+        </is>
       </c>
       <c r="C157" s="22">
         <f>B157</f>
@@ -19934,7 +20246,7 @@
       </c>
       <c r="Z157" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA157" s="6" t="inlineStr">
@@ -19957,8 +20269,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B158" s="21" t="n">
-        <v>45641</v>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>12/15/2024</t>
+        </is>
       </c>
       <c r="C158" s="22">
         <f>B158</f>
@@ -20054,7 +20368,7 @@
       </c>
       <c r="Z158" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA158" s="6" t="inlineStr">
@@ -20077,8 +20391,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B159" s="21" t="n">
-        <v>45654</v>
+      <c r="B159" s="21" t="inlineStr">
+        <is>
+          <t>12/28/2024</t>
+        </is>
       </c>
       <c r="C159" s="22">
         <f>B159</f>
@@ -20174,7 +20490,7 @@
       </c>
       <c r="Z159" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA159" s="6" t="inlineStr">
@@ -20197,8 +20513,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B160" s="21" t="n">
-        <v>45648</v>
+      <c r="B160" s="21" t="inlineStr">
+        <is>
+          <t>12/22/2024</t>
+        </is>
       </c>
       <c r="C160" s="22">
         <f>B160</f>
@@ -20294,7 +20612,7 @@
       </c>
       <c r="Z160" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA160" s="6" t="inlineStr">
@@ -20317,8 +20635,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B161" s="21" t="n">
-        <v>45647</v>
+      <c r="B161" s="21" t="inlineStr">
+        <is>
+          <t>12/21/2024</t>
+        </is>
       </c>
       <c r="C161" s="22">
         <f>B161</f>
@@ -20414,7 +20734,7 @@
       </c>
       <c r="Z161" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA161" s="6" t="inlineStr">
@@ -20437,8 +20757,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B162" s="21" t="n">
-        <v>45654</v>
+      <c r="B162" s="21" t="inlineStr">
+        <is>
+          <t>12/28/2024</t>
+        </is>
       </c>
       <c r="C162" s="22">
         <f>B162</f>
@@ -20534,7 +20856,7 @@
       </c>
       <c r="Z162" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA162" s="6" t="inlineStr">
@@ -20557,8 +20879,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B163" s="21" t="n">
-        <v>45627</v>
+      <c r="B163" s="21" t="inlineStr">
+        <is>
+          <t>12/1/2024</t>
+        </is>
       </c>
       <c r="C163" s="22">
         <f>B163</f>
@@ -20654,7 +20978,7 @@
       </c>
       <c r="Z163" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA163" s="6" t="inlineStr">
@@ -20677,8 +21001,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B164" s="21" t="n">
-        <v>45641</v>
+      <c r="B164" s="21" t="inlineStr">
+        <is>
+          <t>12/15/2024</t>
+        </is>
       </c>
       <c r="C164" s="22">
         <f>B164</f>
@@ -20774,7 +21100,7 @@
       </c>
       <c r="Z164" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA164" s="6" t="inlineStr">
@@ -20797,8 +21123,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B165" s="21" t="n">
-        <v>45647</v>
+      <c r="B165" s="21" t="inlineStr">
+        <is>
+          <t>12/21/2024</t>
+        </is>
       </c>
       <c r="C165" s="22">
         <f>B165</f>
@@ -20894,7 +21222,7 @@
       </c>
       <c r="Z165" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA165" s="6" t="inlineStr">
@@ -20917,8 +21245,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B166" s="21" t="n">
-        <v>45654</v>
+      <c r="B166" s="21" t="inlineStr">
+        <is>
+          <t>12/28/2024</t>
+        </is>
       </c>
       <c r="C166" s="22">
         <f>B166</f>
@@ -21014,7 +21344,7 @@
       </c>
       <c r="Z166" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA166" s="6" t="inlineStr">
@@ -21037,8 +21367,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B167" s="21" t="n">
-        <v>45640</v>
+      <c r="B167" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C167" s="22">
         <f>B167</f>
@@ -21134,7 +21466,7 @@
       </c>
       <c r="Z167" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA167" s="6" t="inlineStr">
@@ -21157,8 +21489,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B168" s="21" t="n">
-        <v>45641</v>
+      <c r="B168" s="21" t="inlineStr">
+        <is>
+          <t>12/15/2024</t>
+        </is>
       </c>
       <c r="C168" s="22">
         <f>B168</f>
@@ -21254,7 +21588,7 @@
       </c>
       <c r="Z168" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA168" s="6" t="inlineStr">
@@ -21277,8 +21611,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B169" s="21" t="n">
-        <v>45655</v>
+      <c r="B169" s="21" t="inlineStr">
+        <is>
+          <t>12/29/2024</t>
+        </is>
       </c>
       <c r="C169" s="22">
         <f>B169</f>
@@ -21374,7 +21710,7 @@
       </c>
       <c r="Z169" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA169" s="6" t="inlineStr">
@@ -21397,8 +21733,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B170" s="21" t="n">
-        <v>45640</v>
+      <c r="B170" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C170" s="22">
         <f>B170</f>
@@ -21494,7 +21832,7 @@
       </c>
       <c r="Z170" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA170" s="6" t="inlineStr">
@@ -21517,8 +21855,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B171" s="21" t="n">
-        <v>45648</v>
+      <c r="B171" s="21" t="inlineStr">
+        <is>
+          <t>12/22/2024</t>
+        </is>
       </c>
       <c r="C171" s="22">
         <f>B171</f>
@@ -21614,7 +21954,7 @@
       </c>
       <c r="Z171" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA171" s="6" t="inlineStr">
@@ -21637,8 +21977,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B172" s="21" t="n">
-        <v>45655</v>
+      <c r="B172" s="21" t="inlineStr">
+        <is>
+          <t>12/29/2024</t>
+        </is>
       </c>
       <c r="C172" s="22">
         <f>B172</f>
@@ -21734,7 +22076,7 @@
       </c>
       <c r="Z172" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA172" s="6" t="inlineStr">
@@ -21757,8 +22099,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B173" s="21" t="n">
-        <v>45627</v>
+      <c r="B173" s="21" t="inlineStr">
+        <is>
+          <t>12/1/2024</t>
+        </is>
       </c>
       <c r="C173" s="22">
         <f>B173</f>
@@ -21854,7 +22198,7 @@
       </c>
       <c r="Z173" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA173" s="6" t="inlineStr">
@@ -21877,8 +22221,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B174" s="21" t="n">
-        <v>45638</v>
+      <c r="B174" s="21" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
       </c>
       <c r="C174" s="22">
         <f>B174</f>
@@ -21974,7 +22320,7 @@
       </c>
       <c r="Z174" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA174" s="6" t="inlineStr">
@@ -21997,8 +22343,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B175" s="21" t="n">
-        <v>45627</v>
+      <c r="B175" s="21" t="inlineStr">
+        <is>
+          <t>12/1/2024</t>
+        </is>
       </c>
       <c r="C175" s="22">
         <f>B175</f>
@@ -22094,7 +22442,7 @@
       </c>
       <c r="Z175" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA175" s="6" t="inlineStr">
@@ -22117,8 +22465,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B176" s="21" t="n">
-        <v>45649</v>
+      <c r="B176" s="21" t="inlineStr">
+        <is>
+          <t>12/23/2024</t>
+        </is>
       </c>
       <c r="C176" s="22">
         <f>B176</f>
@@ -22214,7 +22564,7 @@
       </c>
       <c r="Z176" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA176" s="6" t="inlineStr">
@@ -22237,8 +22587,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B177" s="21" t="n">
-        <v>45653</v>
+      <c r="B177" s="21" t="inlineStr">
+        <is>
+          <t>12/27/2024</t>
+        </is>
       </c>
       <c r="C177" s="22">
         <f>B177</f>
@@ -22334,7 +22686,7 @@
       </c>
       <c r="Z177" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA177" s="6" t="inlineStr">
@@ -22357,8 +22709,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B178" s="21" t="n">
-        <v>45645</v>
+      <c r="B178" s="21" t="inlineStr">
+        <is>
+          <t>12/19/2024</t>
+        </is>
       </c>
       <c r="C178" s="22">
         <f>B178</f>
@@ -22454,7 +22808,7 @@
       </c>
       <c r="Z178" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA178" s="6" t="inlineStr">
@@ -22477,8 +22831,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B179" s="21" t="n">
-        <v>45639</v>
+      <c r="B179" s="21" t="inlineStr">
+        <is>
+          <t>12/13/2024</t>
+        </is>
       </c>
       <c r="C179" s="22">
         <f>B179</f>
@@ -22574,7 +22930,7 @@
       </c>
       <c r="Z179" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA179" s="6" t="inlineStr">
@@ -22597,8 +22953,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B180" s="21" t="n">
-        <v>45629</v>
+      <c r="B180" s="21" t="inlineStr">
+        <is>
+          <t>12/3/2024</t>
+        </is>
       </c>
       <c r="C180" s="22">
         <f>B180</f>
@@ -22694,7 +23052,7 @@
       </c>
       <c r="Z180" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA180" s="6" t="inlineStr">
@@ -22717,8 +23075,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B181" s="21" t="n">
-        <v>45630</v>
+      <c r="B181" s="21" t="inlineStr">
+        <is>
+          <t>12/4/2024</t>
+        </is>
       </c>
       <c r="C181" s="22">
         <f>B181</f>
@@ -22814,7 +23174,7 @@
       </c>
       <c r="Z181" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA181" s="6" t="inlineStr">
@@ -22837,8 +23197,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B182" s="21" t="n">
-        <v>45650</v>
+      <c r="B182" s="21" t="inlineStr">
+        <is>
+          <t>12/24/2024</t>
+        </is>
       </c>
       <c r="C182" s="22">
         <f>B182</f>
@@ -22934,7 +23296,7 @@
       </c>
       <c r="Z182" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA182" s="6" t="inlineStr">
@@ -22957,8 +23319,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B183" s="21" t="n">
-        <v>45634</v>
+      <c r="B183" s="21" t="inlineStr">
+        <is>
+          <t>12/8/2024</t>
+        </is>
       </c>
       <c r="C183" s="22">
         <f>B183</f>
@@ -23054,7 +23418,7 @@
       </c>
       <c r="Z183" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA183" s="6" t="inlineStr">
@@ -23077,8 +23441,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B184" s="21" t="n">
-        <v>45640</v>
+      <c r="B184" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C184" s="22">
         <f>B184</f>
@@ -23174,7 +23540,7 @@
       </c>
       <c r="Z184" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA184" s="6" t="inlineStr">
@@ -23197,8 +23563,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B185" s="21" t="n">
-        <v>45646</v>
+      <c r="B185" s="21" t="inlineStr">
+        <is>
+          <t>12/20/2024</t>
+        </is>
       </c>
       <c r="C185" s="22">
         <f>B185</f>
@@ -23294,7 +23662,7 @@
       </c>
       <c r="Z185" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA185" s="6" t="inlineStr">
@@ -23317,8 +23685,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B186" s="21" t="n">
-        <v>45643</v>
+      <c r="B186" s="21" t="inlineStr">
+        <is>
+          <t>12/17/2024</t>
+        </is>
       </c>
       <c r="C186" s="22">
         <f>B186</f>
@@ -23414,7 +23784,7 @@
       </c>
       <c r="Z186" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA186" s="6" t="inlineStr">
@@ -23437,8 +23807,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B187" s="21" t="n">
-        <v>45652</v>
+      <c r="B187" s="21" t="inlineStr">
+        <is>
+          <t>12/26/2024</t>
+        </is>
       </c>
       <c r="C187" s="22">
         <f>B187</f>
@@ -23534,7 +23906,7 @@
       </c>
       <c r="Z187" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA187" s="6" t="inlineStr">
@@ -23557,8 +23929,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B188" s="21" t="n">
-        <v>45639</v>
+      <c r="B188" s="21" t="inlineStr">
+        <is>
+          <t>12/13/2024</t>
+        </is>
       </c>
       <c r="C188" s="22">
         <f>B188</f>
@@ -23654,7 +24028,7 @@
       </c>
       <c r="Z188" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA188" s="6" t="inlineStr">
@@ -23677,8 +24051,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B189" s="21" t="n">
-        <v>45641</v>
+      <c r="B189" s="21" t="inlineStr">
+        <is>
+          <t>12/15/2024</t>
+        </is>
       </c>
       <c r="C189" s="22">
         <f>B189</f>
@@ -23774,7 +24150,7 @@
       </c>
       <c r="Z189" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA189" s="6" t="inlineStr">
@@ -23797,8 +24173,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B190" s="21" t="n">
-        <v>45637</v>
+      <c r="B190" s="21" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
       </c>
       <c r="C190" s="22">
         <f>B190</f>
@@ -23894,7 +24272,7 @@
       </c>
       <c r="Z190" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA190" s="6" t="inlineStr">
@@ -23917,8 +24295,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B191" s="21" t="n">
-        <v>45631</v>
+      <c r="B191" s="21" t="inlineStr">
+        <is>
+          <t>12/5/2024</t>
+        </is>
       </c>
       <c r="C191" s="22">
         <f>B191</f>
@@ -24014,7 +24394,7 @@
       </c>
       <c r="Z191" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA191" s="6" t="inlineStr">
@@ -24037,8 +24417,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B192" s="21" t="n">
-        <v>45632</v>
+      <c r="B192" s="21" t="inlineStr">
+        <is>
+          <t>12/6/2024</t>
+        </is>
       </c>
       <c r="C192" s="22">
         <f>B192</f>
@@ -24134,7 +24516,7 @@
       </c>
       <c r="Z192" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA192" s="6" t="inlineStr">
@@ -24157,8 +24539,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B193" s="21" t="n">
-        <v>45627</v>
+      <c r="B193" s="21" t="inlineStr">
+        <is>
+          <t>12/1/2024</t>
+        </is>
       </c>
       <c r="C193" s="22">
         <f>B193</f>
@@ -24254,7 +24638,7 @@
       </c>
       <c r="Z193" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA193" s="6" t="inlineStr">
@@ -24277,8 +24661,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B194" s="21" t="n">
-        <v>45640</v>
+      <c r="B194" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C194" s="22">
         <f>B194</f>
@@ -24374,7 +24760,7 @@
       </c>
       <c r="Z194" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA194" s="6" t="inlineStr">
@@ -24397,8 +24783,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B195" s="21" t="n">
-        <v>45649</v>
+      <c r="B195" s="21" t="inlineStr">
+        <is>
+          <t>12/23/2024</t>
+        </is>
       </c>
       <c r="C195" s="22">
         <f>B195</f>
@@ -24494,7 +24882,7 @@
       </c>
       <c r="Z195" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA195" s="6" t="inlineStr">
@@ -24517,8 +24905,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B196" s="21" t="n">
-        <v>45644</v>
+      <c r="B196" s="21" t="inlineStr">
+        <is>
+          <t>12/18/2024</t>
+        </is>
       </c>
       <c r="C196" s="22">
         <f>B196</f>
@@ -24614,7 +25004,7 @@
       </c>
       <c r="Z196" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA196" s="6" t="inlineStr">
@@ -24637,8 +25027,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B197" s="21" t="n">
-        <v>45633</v>
+      <c r="B197" s="21" t="inlineStr">
+        <is>
+          <t>12/7/2024</t>
+        </is>
       </c>
       <c r="C197" s="22">
         <f>B197</f>
@@ -24734,7 +25126,7 @@
       </c>
       <c r="Z197" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA197" s="6" t="inlineStr">
@@ -24757,8 +25149,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B198" s="21" t="n">
-        <v>45638</v>
+      <c r="B198" s="21" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
       </c>
       <c r="C198" s="22">
         <f>B198</f>
@@ -24854,7 +25248,7 @@
       </c>
       <c r="Z198" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA198" s="6" t="inlineStr">
@@ -24877,8 +25271,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B199" s="21" t="n">
-        <v>45650</v>
+      <c r="B199" s="21" t="inlineStr">
+        <is>
+          <t>12/24/2024</t>
+        </is>
       </c>
       <c r="C199" s="22">
         <f>B199</f>
@@ -24974,7 +25370,7 @@
       </c>
       <c r="Z199" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA199" s="6" t="inlineStr">
@@ -24997,8 +25393,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B200" s="21" t="n">
-        <v>45628</v>
+      <c r="B200" s="21" t="inlineStr">
+        <is>
+          <t>12/2/2024</t>
+        </is>
       </c>
       <c r="C200" s="22">
         <f>B200</f>
@@ -25094,7 +25492,7 @@
       </c>
       <c r="Z200" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA200" s="6" t="inlineStr">
@@ -25117,8 +25515,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B201" s="21" t="n">
-        <v>45645</v>
+      <c r="B201" s="21" t="inlineStr">
+        <is>
+          <t>12/19/2024</t>
+        </is>
       </c>
       <c r="C201" s="22">
         <f>B201</f>
@@ -25214,7 +25614,7 @@
       </c>
       <c r="Z201" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA201" s="6" t="inlineStr">
@@ -25237,8 +25637,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B202" s="21" t="n">
-        <v>45628</v>
+      <c r="B202" s="21" t="inlineStr">
+        <is>
+          <t>12/2/2024</t>
+        </is>
       </c>
       <c r="C202" s="22">
         <f>B202</f>
@@ -25334,7 +25736,7 @@
       </c>
       <c r="Z202" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA202" s="6" t="inlineStr">
@@ -25357,8 +25759,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B203" s="21" t="n">
-        <v>45650</v>
+      <c r="B203" s="21" t="inlineStr">
+        <is>
+          <t>12/24/2024</t>
+        </is>
       </c>
       <c r="C203" s="22">
         <f>B203</f>
@@ -25454,7 +25858,7 @@
       </c>
       <c r="Z203" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA203" s="6" t="inlineStr">
@@ -25477,8 +25881,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B204" s="21" t="n">
-        <v>45633</v>
+      <c r="B204" s="21" t="inlineStr">
+        <is>
+          <t>12/7/2024</t>
+        </is>
       </c>
       <c r="C204" s="22">
         <f>B204</f>
@@ -25574,7 +25980,7 @@
       </c>
       <c r="Z204" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA204" s="6" t="inlineStr">
@@ -25597,8 +26003,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B205" s="21" t="n">
-        <v>45638</v>
+      <c r="B205" s="21" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
       </c>
       <c r="C205" s="22">
         <f>B205</f>
@@ -25694,7 +26102,7 @@
       </c>
       <c r="Z205" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA205" s="6" t="inlineStr">
@@ -25717,8 +26125,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B206" s="21" t="n">
-        <v>45646</v>
+      <c r="B206" s="21" t="inlineStr">
+        <is>
+          <t>12/20/2024</t>
+        </is>
       </c>
       <c r="C206" s="22">
         <f>B206</f>
@@ -25814,7 +26224,7 @@
       </c>
       <c r="Z206" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA206" s="6" t="inlineStr">
@@ -25837,8 +26247,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B207" s="21" t="n">
-        <v>45634</v>
+      <c r="B207" s="21" t="inlineStr">
+        <is>
+          <t>12/8/2024</t>
+        </is>
       </c>
       <c r="C207" s="22">
         <f>B207</f>
@@ -25934,7 +26346,7 @@
       </c>
       <c r="Z207" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA207" s="6" t="inlineStr">
@@ -25957,8 +26369,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B208" s="21" t="n">
-        <v>45655</v>
+      <c r="B208" s="21" t="inlineStr">
+        <is>
+          <t>12/29/2024</t>
+        </is>
       </c>
       <c r="C208" s="22">
         <f>B208</f>
@@ -26054,7 +26468,7 @@
       </c>
       <c r="Z208" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA208" s="6" t="inlineStr">
@@ -26077,8 +26491,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B209" s="21" t="n">
-        <v>45629</v>
+      <c r="B209" s="21" t="inlineStr">
+        <is>
+          <t>12/3/2024</t>
+        </is>
       </c>
       <c r="C209" s="22">
         <f>B209</f>
@@ -26174,7 +26590,7 @@
       </c>
       <c r="Z209" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA209" s="6" t="inlineStr">
@@ -26197,8 +26613,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B210" s="21" t="n">
-        <v>45637</v>
+      <c r="B210" s="21" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
       </c>
       <c r="C210" s="22">
         <f>B210</f>
@@ -26294,7 +26712,7 @@
       </c>
       <c r="Z210" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA210" s="6" t="inlineStr">
@@ -26317,8 +26735,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B211" s="21" t="n">
-        <v>45647</v>
+      <c r="B211" s="21" t="inlineStr">
+        <is>
+          <t>12/21/2024</t>
+        </is>
       </c>
       <c r="C211" s="22">
         <f>B211</f>
@@ -26414,7 +26834,7 @@
       </c>
       <c r="Z211" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA211" s="6" t="inlineStr">
@@ -26437,8 +26857,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B212" s="21" t="n">
-        <v>45627</v>
+      <c r="B212" s="21" t="inlineStr">
+        <is>
+          <t>12/1/2024</t>
+        </is>
       </c>
       <c r="C212" s="22">
         <f>B212</f>
@@ -26534,7 +26956,7 @@
       </c>
       <c r="Z212" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA212" s="6" t="inlineStr">
@@ -26557,8 +26979,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B213" s="21" t="n">
-        <v>45645</v>
+      <c r="B213" s="21" t="inlineStr">
+        <is>
+          <t>12/19/2024</t>
+        </is>
       </c>
       <c r="C213" s="22">
         <f>B213</f>
@@ -26654,7 +27078,7 @@
       </c>
       <c r="Z213" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA213" s="6" t="inlineStr">
@@ -26677,8 +27101,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B214" s="21" t="n">
-        <v>45652</v>
+      <c r="B214" s="21" t="inlineStr">
+        <is>
+          <t>12/26/2024</t>
+        </is>
       </c>
       <c r="C214" s="22">
         <f>B214</f>
@@ -26774,7 +27200,7 @@
       </c>
       <c r="Z214" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA214" s="6" t="inlineStr">
@@ -26797,8 +27223,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B215" s="21" t="n">
-        <v>45632</v>
+      <c r="B215" s="21" t="inlineStr">
+        <is>
+          <t>12/6/2024</t>
+        </is>
       </c>
       <c r="C215" s="22">
         <f>B215</f>
@@ -26894,7 +27322,7 @@
       </c>
       <c r="Z215" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA215" s="6" t="inlineStr">
@@ -26917,8 +27345,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B216" s="21" t="n">
-        <v>45644</v>
+      <c r="B216" s="21" t="inlineStr">
+        <is>
+          <t>12/18/2024</t>
+        </is>
       </c>
       <c r="C216" s="22">
         <f>B216</f>
@@ -27014,7 +27444,7 @@
       </c>
       <c r="Z216" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA216" s="6" t="inlineStr">
@@ -27037,8 +27467,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B217" s="21" t="n">
-        <v>45647</v>
+      <c r="B217" s="21" t="inlineStr">
+        <is>
+          <t>12/21/2024</t>
+        </is>
       </c>
       <c r="C217" s="22">
         <f>B217</f>
@@ -27134,7 +27566,7 @@
       </c>
       <c r="Z217" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA217" s="6" t="inlineStr">
@@ -27157,8 +27589,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B218" s="21" t="n">
-        <v>45645</v>
+      <c r="B218" s="21" t="inlineStr">
+        <is>
+          <t>12/19/2024</t>
+        </is>
       </c>
       <c r="C218" s="22">
         <f>B218</f>
@@ -27254,7 +27688,7 @@
       </c>
       <c r="Z218" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA218" s="6" t="inlineStr">
@@ -27277,8 +27711,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B219" s="21" t="n">
-        <v>45637</v>
+      <c r="B219" s="21" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
       </c>
       <c r="C219" s="22">
         <f>B219</f>
@@ -27374,7 +27810,7 @@
       </c>
       <c r="Z219" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA219" s="6" t="inlineStr">
@@ -27397,8 +27833,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B220" s="21" t="n">
-        <v>45641</v>
+      <c r="B220" s="21" t="inlineStr">
+        <is>
+          <t>12/15/2024</t>
+        </is>
       </c>
       <c r="C220" s="22">
         <f>B220</f>
@@ -27494,7 +27932,7 @@
       </c>
       <c r="Z220" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA220" s="6" t="inlineStr">
@@ -27517,8 +27955,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B221" s="21" t="n">
-        <v>45636</v>
+      <c r="B221" s="21" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
       </c>
       <c r="C221" s="22">
         <f>B221</f>
@@ -27614,7 +28054,7 @@
       </c>
       <c r="Z221" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA221" s="6" t="inlineStr">
@@ -27637,8 +28077,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B222" s="21" t="n">
-        <v>45642</v>
+      <c r="B222" s="21" t="inlineStr">
+        <is>
+          <t>12/16/2024</t>
+        </is>
       </c>
       <c r="C222" s="22">
         <f>B222</f>
@@ -27734,7 +28176,7 @@
       </c>
       <c r="Z222" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA222" s="6" t="inlineStr">
@@ -27757,8 +28199,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B223" s="21" t="n">
-        <v>45648</v>
+      <c r="B223" s="21" t="inlineStr">
+        <is>
+          <t>12/22/2024</t>
+        </is>
       </c>
       <c r="C223" s="22">
         <f>B223</f>
@@ -27854,7 +28298,7 @@
       </c>
       <c r="Z223" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA223" s="6" t="inlineStr">
@@ -27877,8 +28321,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B224" s="21" t="n">
-        <v>45651</v>
+      <c r="B224" s="21" t="inlineStr">
+        <is>
+          <t>12/25/2024</t>
+        </is>
       </c>
       <c r="C224" s="22">
         <f>B224</f>
@@ -27974,7 +28420,7 @@
       </c>
       <c r="Z224" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA224" s="6" t="inlineStr">
@@ -27997,8 +28443,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B225" s="21" t="n">
-        <v>45644</v>
+      <c r="B225" s="21" t="inlineStr">
+        <is>
+          <t>12/18/2024</t>
+        </is>
       </c>
       <c r="C225" s="22">
         <f>B225</f>
@@ -28094,7 +28542,7 @@
       </c>
       <c r="Z225" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA225" s="6" t="inlineStr">
@@ -28117,8 +28565,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B226" s="21" t="n">
-        <v>45629</v>
+      <c r="B226" s="21" t="inlineStr">
+        <is>
+          <t>12/3/2024</t>
+        </is>
       </c>
       <c r="C226" s="22">
         <f>B226</f>
@@ -28214,7 +28664,7 @@
       </c>
       <c r="Z226" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA226" s="6" t="inlineStr">
@@ -28237,8 +28687,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B227" s="21" t="n">
-        <v>45653</v>
+      <c r="B227" s="21" t="inlineStr">
+        <is>
+          <t>12/27/2024</t>
+        </is>
       </c>
       <c r="C227" s="22">
         <f>B227</f>
@@ -28334,7 +28786,7 @@
       </c>
       <c r="Z227" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA227" s="6" t="inlineStr">
@@ -28357,8 +28809,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B228" s="21" t="n">
-        <v>45634</v>
+      <c r="B228" s="21" t="inlineStr">
+        <is>
+          <t>12/8/2024</t>
+        </is>
       </c>
       <c r="C228" s="22">
         <f>B228</f>
@@ -28454,7 +28908,7 @@
       </c>
       <c r="Z228" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA228" s="6" t="inlineStr">
@@ -28477,8 +28931,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B229" s="21" t="n">
-        <v>45652</v>
+      <c r="B229" s="21" t="inlineStr">
+        <is>
+          <t>12/26/2024</t>
+        </is>
       </c>
       <c r="C229" s="22">
         <f>B229</f>
@@ -28574,7 +29030,7 @@
       </c>
       <c r="Z229" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA229" s="6" t="inlineStr">
@@ -28597,8 +29053,10 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B230" s="21" t="n">
-        <v>45656</v>
+      <c r="B230" s="21" t="inlineStr">
+        <is>
+          <t>12/30/2024</t>
+        </is>
       </c>
       <c r="C230" s="22">
         <f>B230</f>
@@ -28694,7 +29152,7 @@
       </c>
       <c r="Z230" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA230" s="6" t="inlineStr">
@@ -28717,7 +29175,9 @@
           <t>Sacramento County Water Agency</t>
         </is>
       </c>
-      <c r="B231" s="21" t="n"/>
+      <c r="B231" s="21" t="n">
+        <v/>
+      </c>
       <c r="C231" s="22">
         <f>B231</f>
         <v/>
@@ -28806,7 +29266,7 @@
       </c>
       <c r="Z231" s="6" t="inlineStr">
         <is>
-          <t>Trade</t>
+          <t>Non-Agency</t>
         </is>
       </c>
       <c r="AA231" s="6" t="inlineStr">
